--- a/dryweights.xlsx
+++ b/dryweights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t xml:space="preserve">1479+LN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">2416+HN</t>
@@ -1113,10 +1116,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G326"/>
+  <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A97" activeCellId="0" sqref="A97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O244" activeCellId="0" sqref="O244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1178,6 +1181,21 @@
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>327.7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>202.2</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>229.8</v>
+      </c>
       <c r="G5" s="0" t="n">
         <v>1.67</v>
       </c>
@@ -1186,6 +1204,21 @@
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>342.9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>407.8</v>
+      </c>
       <c r="G6" s="0" t="n">
         <v>2.1</v>
       </c>
@@ -1194,6 +1227,21 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>447.2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>274.7</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>481.9</v>
+      </c>
       <c r="G7" s="0" t="n">
         <v>3.79</v>
       </c>
@@ -1368,6 +1416,21 @@
       <c r="A25" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>338</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>385.7</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>366</v>
+      </c>
       <c r="G25" s="0" t="n">
         <v>1.98</v>
       </c>
@@ -1462,6 +1525,21 @@
       <c r="A33" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="B33" s="0" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>330.11</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>370.1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>345.1</v>
+      </c>
       <c r="G33" s="0" t="n">
         <v>1.68</v>
       </c>
@@ -1470,6 +1548,21 @@
       <c r="A34" s="0" t="s">
         <v>39</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>9.71</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>329.2</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>341.8</v>
+      </c>
       <c r="G34" s="0" t="n">
         <v>2.1</v>
       </c>
@@ -1478,6 +1571,21 @@
       <c r="A35" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="B35" s="0" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>376.1</v>
+      </c>
       <c r="G35" s="0" t="n">
         <v>1.87</v>
       </c>
@@ -1586,6 +1694,21 @@
       <c r="A41" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="B41" s="0" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>534.1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>413.6</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>454.3</v>
+      </c>
       <c r="G41" s="0" t="n">
         <v>3.31</v>
       </c>
@@ -1594,6 +1717,21 @@
       <c r="A42" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="B42" s="0" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>572.7</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>384.9</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>425.9</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>372.6</v>
+      </c>
       <c r="G42" s="0" t="n">
         <v>3.55</v>
       </c>
@@ -1602,6 +1740,21 @@
       <c r="A43" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="B43" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>512.8</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>391.8</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>538.9</v>
+      </c>
       <c r="G43" s="0" t="n">
         <v>3.1</v>
       </c>
@@ -1784,6 +1937,21 @@
       <c r="A62" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="B62" s="0" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>345.25</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>410.7</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>417.2</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>456.3</v>
+      </c>
       <c r="G62" s="0" t="n">
         <v>1.88</v>
       </c>
@@ -1904,6 +2072,21 @@
       <c r="A77" s="0" t="s">
         <v>82</v>
       </c>
+      <c r="B77" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>508.5</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>394.8</v>
+      </c>
       <c r="G77" s="0" t="n">
         <v>2.91</v>
       </c>
@@ -1920,6 +2103,21 @@
       <c r="A79" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="B79" s="0" t="n">
+        <v>9.89</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>448.6</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>425.9</v>
+      </c>
       <c r="G79" s="0" t="n">
         <v>2.61</v>
       </c>
@@ -1944,6 +2142,21 @@
       <c r="A82" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="B82" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>416.9</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>364.4</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>407.1</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>416.5</v>
+      </c>
       <c r="G82" s="0" t="n">
         <v>2.45</v>
       </c>
@@ -1952,6 +2165,21 @@
       <c r="A83" s="0" t="s">
         <v>88</v>
       </c>
+      <c r="B83" s="0" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>502.2</v>
+      </c>
       <c r="G83" s="0" t="n">
         <v>3.76</v>
       </c>
@@ -1960,6 +2188,21 @@
       <c r="A84" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="B84" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>254.7</v>
+      </c>
       <c r="G84" s="0" t="n">
         <v>2.38</v>
       </c>
@@ -1968,6 +2211,21 @@
       <c r="A85" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="B85" s="0" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>462.2</v>
+      </c>
       <c r="G85" s="0" t="n">
         <v>2.21</v>
       </c>
@@ -1976,6 +2234,21 @@
       <c r="A86" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="B86" s="0" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>237.7</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>306.4</v>
+      </c>
       <c r="G86" s="0" t="n">
         <v>2.09</v>
       </c>
@@ -1984,6 +2257,21 @@
       <c r="A87" s="0" t="s">
         <v>92</v>
       </c>
+      <c r="B87" s="0" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>313</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>260.5</v>
+      </c>
       <c r="G87" s="0" t="n">
         <v>1.74</v>
       </c>
@@ -2064,6 +2352,21 @@
       <c r="A97" s="0" t="s">
         <v>102</v>
       </c>
+      <c r="B97" s="0" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>262.7</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>305.3</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>450.1</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>437.9</v>
+      </c>
       <c r="G97" s="0" t="n">
         <v>1.49</v>
       </c>
@@ -2072,6 +2375,21 @@
       <c r="A98" s="0" t="s">
         <v>103</v>
       </c>
+      <c r="B98" s="0" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>442.1</v>
+      </c>
       <c r="G98" s="0" t="n">
         <v>2.18</v>
       </c>
@@ -2096,6 +2414,21 @@
       <c r="A101" s="0" t="s">
         <v>106</v>
       </c>
+      <c r="B101" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>507.5</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>357.3</v>
+      </c>
       <c r="G101" s="0" t="n">
         <v>2.84</v>
       </c>
@@ -2127,6 +2460,21 @@
       <c r="A103" s="0" t="s">
         <v>108</v>
       </c>
+      <c r="B103" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>593.3</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>331.1</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>383.2</v>
+      </c>
       <c r="G103" s="0" t="n">
         <v>3.57</v>
       </c>
@@ -2158,6 +2506,21 @@
       <c r="A105" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="B105" s="0" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>314.1</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>297.3</v>
+      </c>
       <c r="G105" s="0" t="n">
         <v>1.36</v>
       </c>
@@ -2182,6 +2545,21 @@
       <c r="A108" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="B108" s="0" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>443.6</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>435.9</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>494.8</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>500.3</v>
+      </c>
       <c r="G108" s="0" t="n">
         <v>2.81</v>
       </c>
@@ -2198,6 +2576,21 @@
       <c r="A110" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="B110" s="0" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>472</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>485.9</v>
+      </c>
       <c r="G110" s="0" t="n">
         <v>2.69</v>
       </c>
@@ -2214,6 +2607,12 @@
       <c r="A112" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="B112" s="0" t="n">
+        <v>15.83</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>610</v>
+      </c>
       <c r="G112" s="0" t="n">
         <v>4.13</v>
       </c>
@@ -2222,6 +2621,12 @@
       <c r="A113" s="0" t="s">
         <v>118</v>
       </c>
+      <c r="B113" s="0" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>621</v>
+      </c>
       <c r="G113" s="0" t="n">
         <v>3.74</v>
       </c>
@@ -2333,6 +2738,21 @@
       <c r="A125" s="0" t="s">
         <v>130</v>
       </c>
+      <c r="B125" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>398.9</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>469.4</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>508.5</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>541.1</v>
+      </c>
       <c r="G125" s="0" t="n">
         <v>3</v>
       </c>
@@ -2395,6 +2815,21 @@
       <c r="A129" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="B129" s="0" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>340.6</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>454.3</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>470.7</v>
+      </c>
       <c r="G129" s="0" t="n">
         <v>2.38</v>
       </c>
@@ -2403,6 +2838,21 @@
       <c r="A130" s="0" t="s">
         <v>135</v>
       </c>
+      <c r="B130" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>364.4</v>
+      </c>
       <c r="G130" s="0" t="n">
         <v>1.36</v>
       </c>
@@ -2512,6 +2962,21 @@
       <c r="A138" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="B138" s="0" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>333</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>407.1</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>442.1</v>
+      </c>
       <c r="G138" s="0" t="n">
         <v>2.14</v>
       </c>
@@ -2520,6 +2985,21 @@
       <c r="A139" s="0" t="s">
         <v>144</v>
       </c>
+      <c r="B139" s="0" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>205.2</v>
+      </c>
       <c r="G139" s="0" t="n">
         <v>1.8</v>
       </c>
@@ -2669,6 +3149,21 @@
       <c r="A152" s="0" t="s">
         <v>157</v>
       </c>
+      <c r="B152" s="0" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>347.55</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>583.2</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>456.3</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>448.6</v>
+      </c>
       <c r="G152" s="0" t="n">
         <v>2.13</v>
       </c>
@@ -2849,6 +3344,21 @@
       <c r="A167" s="0" t="s">
         <v>172</v>
       </c>
+      <c r="B167" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>352.4</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>397.2</v>
+      </c>
       <c r="G167" s="0" t="n">
         <v>1.96</v>
       </c>
@@ -2857,6 +3367,21 @@
       <c r="A168" s="0" t="s">
         <v>173</v>
       </c>
+      <c r="B168" s="0" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>333.9</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>274.7</v>
+      </c>
       <c r="G168" s="0" t="n">
         <v>2.47</v>
       </c>
@@ -2929,6 +3454,21 @@
       <c r="A177" s="0" t="s">
         <v>182</v>
       </c>
+      <c r="B177" s="0" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>319</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>305.3</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>324.5</v>
+      </c>
       <c r="G177" s="0" t="n">
         <v>1.97</v>
       </c>
@@ -2945,6 +3485,21 @@
       <c r="A179" s="0" t="s">
         <v>184</v>
       </c>
+      <c r="B179" s="0" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>509.1</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>543.2</v>
+      </c>
       <c r="G179" s="0" t="n">
         <v>3.45</v>
       </c>
@@ -2953,6 +3508,21 @@
       <c r="A180" s="0" t="s">
         <v>185</v>
       </c>
+      <c r="B180" s="0" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>401.3</v>
+      </c>
       <c r="G180" s="0" t="n">
         <v>1.16</v>
       </c>
@@ -2961,6 +3531,21 @@
       <c r="A181" s="0" t="s">
         <v>186</v>
       </c>
+      <c r="B181" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>254.7</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>349.8</v>
+      </c>
       <c r="G181" s="0" t="n">
         <v>1.24</v>
       </c>
@@ -2969,6 +3554,21 @@
       <c r="A182" s="0" t="s">
         <v>187</v>
       </c>
+      <c r="B182" s="0" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>304</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>339.5</v>
+      </c>
       <c r="G182" s="0" t="n">
         <v>1.55</v>
       </c>
@@ -2985,6 +3585,21 @@
       <c r="A184" s="0" t="s">
         <v>189</v>
       </c>
+      <c r="B184" s="0" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>456</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>376.1</v>
+      </c>
       <c r="G184" s="0" t="n">
         <v>2.68</v>
       </c>
@@ -3017,6 +3632,21 @@
       <c r="A188" s="0" t="s">
         <v>193</v>
       </c>
+      <c r="B188" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>356.4</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>407.1</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>525.2</v>
+      </c>
       <c r="G188" s="0" t="n">
         <v>3.31</v>
       </c>
@@ -3025,6 +3655,21 @@
       <c r="A189" s="0" t="s">
         <v>194</v>
       </c>
+      <c r="B189" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>468.8</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>322.6</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>376.1</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>424.3</v>
+      </c>
       <c r="G189" s="0" t="n">
         <v>2.69</v>
       </c>
@@ -3041,6 +3686,21 @@
       <c r="A191" s="0" t="s">
         <v>196</v>
       </c>
+      <c r="B191" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>290.2</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>308.6</v>
+      </c>
       <c r="G191" s="0" t="n">
         <v>1.43</v>
       </c>
@@ -3065,6 +3725,21 @@
       <c r="A194" s="0" t="s">
         <v>199</v>
       </c>
+      <c r="B194" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>291.1</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>350.8</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>408.5</v>
+      </c>
       <c r="G194" s="0" t="n">
         <v>2.25</v>
       </c>
@@ -3132,10 +3807,13 @@
       <c r="G202" s="0" t="n">
         <v>3.17</v>
       </c>
+      <c r="O202" s="0" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>1.94</v>
@@ -3143,7 +3821,7 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>2.25</v>
@@ -3151,7 +3829,7 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>7.48</v>
@@ -3174,7 +3852,22 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>386.5</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>2.31</v>
@@ -3182,7 +3875,22 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>202.2</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>389.6</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>2.62</v>
@@ -3190,7 +3898,7 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>2.3</v>
@@ -3198,7 +3906,7 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>3.82</v>
@@ -3206,7 +3914,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>4.1</v>
@@ -3214,7 +3922,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>2.04</v>
@@ -3222,7 +3930,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>2.5</v>
@@ -3230,7 +3938,22 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>336.7</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>397.2</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>414.3</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>2.81</v>
@@ -3238,7 +3961,13 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>562</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>3.32</v>
@@ -3246,7 +3975,7 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>2.52</v>
@@ -3254,7 +3983,7 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>2.91</v>
@@ -3262,7 +3991,22 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>319.8</v>
       </c>
       <c r="G217" s="0" t="n">
         <v>2</v>
@@ -3270,7 +4014,7 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>1.99</v>
@@ -3278,7 +4022,22 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>412.1</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>400.5</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>1.48</v>
@@ -3286,7 +4045,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>1.49</v>
@@ -3294,7 +4053,7 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>1.8</v>
@@ -3302,7 +4061,22 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>255.8</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>333.9</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>404.6</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>1.22</v>
@@ -3310,7 +4084,22 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>398.5</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>286.4</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>328.3</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>2.08</v>
@@ -3318,7 +4107,22 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>305.3</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>326.4</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>1.93</v>
@@ -3326,7 +4130,22 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>486</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>425.1</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>2.99</v>
@@ -3334,7 +4153,22 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>452</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>202.2</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>237.7</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>249.5</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>2.22</v>
@@ -3342,7 +4176,7 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>2.15</v>
@@ -3350,7 +4184,7 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>3.76</v>
@@ -3358,7 +4192,7 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>9.1</v>
@@ -3381,7 +4215,7 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>2.61</v>
@@ -3389,7 +4223,7 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>8.01</v>
@@ -3412,7 +4246,7 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>3.46</v>
@@ -3420,7 +4254,7 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>2.19</v>
@@ -3428,7 +4262,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G234" s="0" t="n">
         <v>1.9</v>
@@ -3436,7 +4270,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G235" s="0" t="n">
         <v>3.07</v>
@@ -3444,7 +4278,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G236" s="0" t="n">
         <v>3.62</v>
@@ -3452,7 +4286,22 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>262.7</v>
       </c>
       <c r="G237" s="0" t="n">
         <v>2.02</v>
@@ -3460,7 +4309,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>15.69</v>
@@ -3483,7 +4332,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G239" s="0" t="n">
         <v>2.06</v>
@@ -3491,7 +4340,22 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>277.1</v>
       </c>
       <c r="G240" s="0" t="n">
         <v>2.37</v>
@@ -3499,7 +4363,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G241" s="0" t="n">
         <v>1.55</v>
@@ -3507,7 +4371,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G242" s="0" t="n">
         <v>2.98</v>
@@ -3515,7 +4379,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G243" s="0" t="n">
         <v>2.13</v>
@@ -3523,7 +4387,22 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>384.1</v>
+      </c>
+      <c r="F244" s="0" t="n">
+        <v>307.5</v>
       </c>
       <c r="G244" s="0" t="n">
         <v>2.08</v>
@@ -3531,7 +4410,19 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>149.4</v>
       </c>
       <c r="G245" s="0" t="n">
         <v>1.21</v>
@@ -3539,7 +4430,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G246" s="0" t="n">
         <v>2.08</v>
@@ -3547,7 +4438,22 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>198</v>
       </c>
       <c r="G247" s="0" t="n">
         <v>1.58</v>
@@ -3555,7 +4461,22 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>442.8</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>433.3</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>437.9</v>
       </c>
       <c r="G248" s="0" t="n">
         <v>3.17</v>
@@ -3563,7 +4484,7 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G249" s="0" t="n">
         <v>2.98</v>
@@ -3571,7 +4492,22 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>428.9</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>296.4</v>
       </c>
       <c r="G250" s="0" t="n">
         <v>1.77</v>
@@ -3579,7 +4515,22 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>458.2</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>378</v>
       </c>
       <c r="G251" s="0" t="n">
         <v>2.55</v>
@@ -3587,7 +4538,7 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G252" s="0" t="n">
         <v>2.43</v>
@@ -3595,7 +4546,7 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G253" s="0" t="n">
         <v>2.99</v>
@@ -3603,7 +4554,7 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G254" s="0" t="n">
         <v>2.34</v>
@@ -3611,7 +4562,7 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G255" s="0" t="n">
         <v>4.11</v>
@@ -3619,7 +4570,7 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G256" s="0" t="n">
         <v>4.74</v>
@@ -3627,7 +4578,7 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G257" s="0" t="n">
         <v>1.74</v>
@@ -3635,7 +4586,22 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>440.6</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>384.9</v>
+      </c>
+      <c r="F258" s="0" t="n">
+        <v>345.1</v>
       </c>
       <c r="G258" s="0" t="n">
         <v>2.01</v>
@@ -3643,7 +4609,22 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>515.7</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="F259" s="0" t="n">
+        <v>345.1</v>
       </c>
       <c r="G259" s="0" t="n">
         <v>2.25</v>
@@ -3651,7 +4632,22 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>477.9</v>
+      </c>
+      <c r="F260" s="0" t="n">
+        <v>418</v>
       </c>
       <c r="G260" s="0" t="n">
         <v>3.34</v>
@@ -3659,7 +4655,7 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G261" s="0" t="n">
         <v>3.04</v>
@@ -3667,7 +4663,22 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>533.6</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>493.6</v>
+      </c>
+      <c r="F262" s="0" t="n">
+        <v>401.3</v>
       </c>
       <c r="G262" s="0" t="n">
         <v>2.64</v>
@@ -3675,7 +4686,22 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>385.7</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>415.8</v>
       </c>
       <c r="G263" s="0" t="n">
         <v>2.6</v>
@@ -3683,7 +4709,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>9.93</v>
@@ -3706,7 +4732,22 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="F265" s="0" t="n">
+        <v>235</v>
       </c>
       <c r="G265" s="0" t="n">
         <v>3.13</v>
@@ -3714,7 +4755,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G266" s="0" t="n">
         <v>1.88</v>
@@ -3722,7 +4763,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G267" s="0" t="n">
         <v>1.56</v>
@@ -3730,7 +4771,22 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>470.1</v>
+      </c>
+      <c r="F268" s="0" t="n">
+        <v>525.4</v>
       </c>
       <c r="G268" s="0" t="n">
         <v>2.32</v>
@@ -3738,7 +4794,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G269" s="0" t="n">
         <v>2.58</v>
@@ -3746,7 +4802,7 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G270" s="0" t="n">
         <v>2.59</v>
@@ -3754,7 +4810,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G271" s="0" t="n">
         <v>2.87</v>
@@ -3762,7 +4818,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G272" s="0" t="n">
         <v>1.86</v>
@@ -3770,7 +4826,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G273" s="0" t="n">
         <v>2.45</v>
@@ -3778,7 +4834,7 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G274" s="0" t="n">
         <v>1.92</v>
@@ -3786,7 +4842,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G275" s="0" t="n">
         <v>2.68</v>
@@ -3794,7 +4850,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G276" s="0" t="n">
         <v>2.29</v>
@@ -3802,7 +4858,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G277" s="0" t="n">
         <v>1.88</v>
@@ -3810,7 +4866,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G278" s="0" t="n">
         <v>2.17</v>
@@ -3818,7 +4874,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G279" s="0" t="n">
         <v>1.94</v>
@@ -3826,7 +4882,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G280" s="0" t="n">
         <v>2.4</v>
@@ -3834,7 +4890,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G281" s="0" t="n">
         <v>2.22</v>
@@ -3842,7 +4898,7 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G282" s="0" t="n">
         <v>1.58</v>
@@ -3850,7 +4906,22 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>433.8</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>321.7</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>421</v>
       </c>
       <c r="G283" s="0" t="n">
         <v>2.64</v>
@@ -3858,7 +4929,22 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>306.4</v>
       </c>
       <c r="G284" s="0" t="n">
         <v>2.14</v>
@@ -3866,7 +4952,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G285" s="0" t="n">
         <v>1.85</v>
@@ -3874,7 +4960,22 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>592.7</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>413.6</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>447.9</v>
       </c>
       <c r="G286" s="0" t="n">
         <v>3.35</v>
@@ -3882,7 +4983,22 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>431.1</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="F287" s="0" t="n">
+        <v>454.9</v>
       </c>
       <c r="G287" s="0" t="n">
         <v>2.09</v>
@@ -3890,7 +5006,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G288" s="0" t="n">
         <v>4.08</v>
@@ -3898,7 +5014,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G289" s="0" t="n">
         <v>2.46</v>
@@ -3906,7 +5022,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G290" s="0" t="n">
         <v>1.74</v>
@@ -3914,7 +5030,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G291" s="0" t="n">
         <v>3.05</v>
@@ -3922,7 +5038,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G292" s="0" t="n">
         <v>2.33</v>
@@ -3930,7 +5046,22 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>410.7</v>
+      </c>
+      <c r="F293" s="0" t="n">
+        <v>478.6</v>
       </c>
       <c r="G293" s="0" t="n">
         <v>2.42</v>
@@ -3938,7 +5069,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G294" s="0" t="n">
         <v>3.77</v>
@@ -3946,7 +5077,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G295" s="0" t="n">
         <v>3.73</v>
@@ -3954,7 +5085,22 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>375.2</v>
       </c>
       <c r="G296" s="0" t="n">
         <v>2.37</v>
@@ -3962,7 +5108,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G297" s="0" t="n">
         <v>2.89</v>
@@ -3970,7 +5116,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G298" s="0" t="n">
         <v>1.94</v>
@@ -3978,7 +5124,22 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>741.3</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>411.4</v>
       </c>
       <c r="G299" s="0" t="n">
         <v>2.18</v>
@@ -3986,7 +5147,22 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>330.1</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>321.7</v>
       </c>
       <c r="G300" s="0" t="n">
         <v>1.62</v>
@@ -3994,7 +5170,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G301" s="0" t="n">
         <v>2.56</v>
@@ -4002,7 +5178,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G302" s="0" t="n">
         <v>2.06</v>
@@ -4010,7 +5186,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G303" s="0" t="n">
         <v>2.43</v>
@@ -4018,7 +5194,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G304" s="0" t="n">
         <v>3.02</v>
@@ -4026,7 +5202,7 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G305" s="0" t="n">
         <v>2.84</v>
@@ -4034,7 +5210,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G306" s="0" t="n">
         <v>1.23</v>
@@ -4042,7 +5218,22 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>302.23</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="E307" s="0" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>434.6</v>
       </c>
       <c r="G307" s="0" t="n">
         <v>1.66</v>
@@ -4050,7 +5241,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>9.28</v>
@@ -4073,7 +5264,7 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G309" s="0" t="n">
         <v>4.93</v>
@@ -4081,7 +5272,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G310" s="0" t="n">
         <v>2.29</v>
@@ -4089,7 +5280,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G311" s="0" t="n">
         <v>2.73</v>
@@ -4097,7 +5288,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G312" s="0" t="n">
         <v>3.24</v>
@@ -4105,7 +5296,7 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>14.91</v>
@@ -4128,7 +5319,7 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G314" s="0" t="n">
         <v>2.25</v>
@@ -4136,7 +5327,7 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G315" s="0" t="n">
         <v>2.64</v>
@@ -4144,7 +5335,7 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G316" s="0" t="n">
         <v>2.18</v>
@@ -4152,7 +5343,7 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G317" s="0" t="n">
         <v>1.58</v>
@@ -4160,7 +5351,7 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G318" s="0" t="n">
         <v>1.81</v>
@@ -4168,7 +5359,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G319" s="0" t="n">
         <v>3.52</v>
@@ -4176,7 +5367,7 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G320" s="0" t="n">
         <v>1.98</v>
@@ -4184,7 +5375,7 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G321" s="0" t="n">
         <v>4.73</v>
@@ -4192,7 +5383,7 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G322" s="0" t="n">
         <v>3.01</v>
@@ -4200,7 +5391,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G323" s="0" t="n">
         <v>2.82</v>
@@ -4208,7 +5399,7 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G324" s="0" t="n">
         <v>3.21</v>
@@ -4216,7 +5407,22 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="B325" s="0" t="n">
+        <v>9.54</v>
+      </c>
+      <c r="C325" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="D325" s="0" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="E325" s="0" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="F325" s="0" t="n">
+        <v>315.2</v>
       </c>
       <c r="G325" s="0" t="n">
         <v>2.37</v>
@@ -4224,7 +5430,7 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G326" s="0" t="n">
         <v>1.82</v>

--- a/dryweights.xlsx
+++ b/dryweights.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Genotype</t>
   </si>
@@ -41,984 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dry weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3056+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3057+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4376+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3223+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3155+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3271+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4070+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4114+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2186+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2441+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2465+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2096+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2380+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2449+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2090+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2402+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2299+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2462+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2499+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2461+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2463+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2362+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2447+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3321+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2363+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4097+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4071+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3055+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1460+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1462+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4036+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4038+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4084+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4069+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4046+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4366+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4086+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4127+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4055+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4056+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4049+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4585+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4577+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4576+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4574+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4591+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3108+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3109+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1469+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1470+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3288+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3351+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3566+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4514+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4373+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4583+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4375+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4047+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4068+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4050+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1456+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4590+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4478+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1061+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2264+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3303+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3289+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3348+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3347+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3355+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4597+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3232+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3231+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3230+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3324+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3317+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3286+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3318+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3333+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3285+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3363+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3201+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3307+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3557+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3193+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3372+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3343+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3354+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3292+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3349+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2421+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2286+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2419+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2415+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4088+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4074+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2409+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2403+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2440+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4087+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2099+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4168+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4078+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1291+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1517+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4039+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1292+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4040+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1287+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1559+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1499+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1007+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1200+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3319+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4169+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1575+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1270+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1558+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1157+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1217+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1490+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4037+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4061+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4159+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3404+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3276+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3272+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4443+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4442+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4441+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4448+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4100+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4048+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3284+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3185+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4445+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4059+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4145+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4058+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3591+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3583+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3417+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3418+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3513+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3594+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3597+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3598+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3282+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3600+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3415+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3226+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4571+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3225+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4076+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4045+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3010+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3009+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3167+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4067+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3485+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3586+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3585+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3270+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3088+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4372+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4575+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4473+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4550+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1529+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1568+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1562+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1522+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3153+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1465+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3560+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3152+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3107+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3268+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1566+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3275+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1538+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2261+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2082+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2098+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1468+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2097+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1544+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1458+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2100+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1284+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1457+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1461+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1555+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1556+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2418+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1199+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1479+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2416+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2413+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4081+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3283+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3281+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3568+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1582+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1580+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3156+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3157+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3570+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1263+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1261+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3110+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3267+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3154+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1259+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1203+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3273+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3274+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3558+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3345+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3105+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1253+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4444+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4089+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4545+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4060+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JBG+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3191+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2262+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1154+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1156+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3590+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4570+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1219+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3589+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2260+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1019+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1265+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3588+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3091+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4333+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3077+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3075+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1252+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3071+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3093+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1255+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4589+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3327+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4587+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4476+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3569+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3051+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3099+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3014+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4479+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3017+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3571+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4090+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3315+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2331+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2411+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3194+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3563+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2410+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2400+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2333+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2329+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2334+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2464+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3567+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3565+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3564+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1232+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1229+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3200+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3581+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3245+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3123+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3580+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3559+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3238+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1561+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1518+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1005+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1293+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1299+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3124+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1540+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1520+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3316+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2191+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2422+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3224+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3242+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2089+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2541+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2185+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1563+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2077+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2301+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4035+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4057+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4506+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2460+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2500+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4586+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4099+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4331+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4335+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3587+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3322+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3192+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1567+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4199+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4584+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4374+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4371+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4370+LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3309+HN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3599+HN</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O326"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O244" activeCellId="0" sqref="O244"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L243" activeCellId="0" sqref="L243:M243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1154,32 +176,77 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
+      <c r="A2" s="0" t="n">
+        <v>3056</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>315.2</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
+      <c r="A3" s="0" t="n">
+        <v>3057</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>428.9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>304.2</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
+      <c r="A4" s="0" t="n">
+        <v>4376</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>439.2</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>502.9</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>494.8</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2.92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
+      <c r="A5" s="0" t="n">
+        <v>3223</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>6.13</v>
@@ -1201,8 +268,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>11</v>
+      <c r="A6" s="0" t="n">
+        <v>3155</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>7.83</v>
@@ -1224,8 +291,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
+      <c r="A7" s="0" t="n">
+        <v>3271</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>12.31</v>
@@ -1247,8 +314,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>13</v>
+      <c r="A8" s="0" t="n">
+        <v>4070</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6.67</v>
@@ -1270,8 +337,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
+      <c r="A9" s="0" t="n">
+        <v>4114</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>12</v>
@@ -1293,128 +360,353 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>15</v>
+      <c r="A10" s="0" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>470.8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>424.2</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>3.12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>16</v>
+      <c r="A11" s="0" t="n">
+        <v>2441</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>253.4</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1.77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
+      <c r="A12" s="0" t="n">
+        <v>2465</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>454.4</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>321.7</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>2.32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>18</v>
+      <c r="A13" s="0" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>436.7</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>304.2</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1.97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>19</v>
+      <c r="A14" s="0" t="n">
+        <v>2380</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>265.3</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>338.6</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2.26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>20</v>
+      <c r="A15" s="0" t="n">
+        <v>2449</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>466.7</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>390.3</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>2.46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>21</v>
+      <c r="A16" s="0" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>358.6</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>416.5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>348</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>2.08</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>22</v>
+      <c r="A17" s="0" t="n">
+        <v>2402</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>309.7</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>323.5</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1.72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>23</v>
+      <c r="A18" s="0" t="n">
+        <v>2299</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>348.9</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>2.37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>24</v>
+      <c r="A19" s="0" t="n">
+        <v>2462</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>471.9</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>310.8</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>2.32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>25</v>
+      <c r="A20" s="0" t="n">
+        <v>2499</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>253.7</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>366.8</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>2.16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>26</v>
+      <c r="A21" s="0" t="n">
+        <v>2461</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>445.1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>474.6</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2.56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>27</v>
+      <c r="A22" s="0" t="n">
+        <v>2463</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>541.8</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>288.9</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>315.2</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>2.73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>28</v>
+      <c r="A23" s="0" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>608.3</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>336.7</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>380.8</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>3.22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>29</v>
+      <c r="A24" s="0" t="n">
+        <v>2447</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>474.2</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>174.6</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>275.8</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>30</v>
+      <c r="A25" s="0" t="n">
+        <v>3321</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.77</v>
@@ -1436,16 +728,31 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>31</v>
+      <c r="A26" s="0" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>606.9</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>293.3</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>430.4</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>3.07</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>32</v>
+      <c r="A27" s="0" t="n">
+        <v>4097</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>6.15</v>
@@ -1467,8 +774,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>33</v>
+      <c r="A28" s="0" t="n">
+        <v>4071</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>10.61</v>
@@ -1490,40 +797,70 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>34</v>
+      <c r="A29" s="0" t="n">
+        <v>3055</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>495</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>249.5</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>35</v>
+      <c r="A30" s="0" t="n">
+        <v>3582</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>322.6</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>215</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>2.35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>36</v>
+      <c r="A31" s="0" t="n">
+        <v>1460</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>3.93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>37</v>
+      <c r="A32" s="0" t="n">
+        <v>1462</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1.97</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>38</v>
+      <c r="A33" s="0" t="n">
+        <v>4036</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>6.66</v>
@@ -1545,8 +882,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>39</v>
+      <c r="A34" s="0" t="n">
+        <v>4038</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9.71</v>
@@ -1568,8 +905,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>40</v>
+      <c r="A35" s="0" t="n">
+        <v>4084</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6.96</v>
@@ -1591,8 +928,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>41</v>
+      <c r="A36" s="0" t="n">
+        <v>4069</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>11.03</v>
@@ -1614,8 +951,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>42</v>
+      <c r="A37" s="0" t="n">
+        <v>4046</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>8.83</v>
@@ -1637,16 +974,31 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>43</v>
+      <c r="A38" s="0" t="n">
+        <v>4366</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>527.6</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>556.4</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>456.8</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>496</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>3.27</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>44</v>
+      <c r="A39" s="0" t="n">
+        <v>4086</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>8.64</v>
@@ -1668,8 +1020,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>45</v>
+      <c r="A40" s="0" t="n">
+        <v>4127</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>12.44</v>
@@ -1691,8 +1043,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>46</v>
+      <c r="A41" s="0" t="n">
+        <v>4055</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>12.03</v>
@@ -1714,8 +1066,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>47</v>
+      <c r="A42" s="0" t="n">
+        <v>4056</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>13.96</v>
@@ -1737,8 +1089,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>48</v>
+      <c r="A43" s="0" t="n">
+        <v>4049</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>12.5</v>
@@ -1760,136 +1112,271 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>49</v>
+      <c r="A44" s="0" t="n">
+        <v>4585</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>696.7</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>464.8</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>524.6</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>546.1</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>4.02</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>50</v>
+      <c r="A45" s="0" t="n">
+        <v>4577</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>561.7</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>583.8</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>614.5</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>3.77</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>51</v>
+      <c r="A46" s="0" t="n">
+        <v>4576</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>534.2</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>532.4</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>524.6</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>2.94</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>52</v>
+      <c r="A47" s="0" t="n">
+        <v>4574</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>525.11</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>445.7</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>541.1</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>3.12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>53</v>
+      <c r="A48" s="0" t="n">
+        <v>4591</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>505.87</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>465.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>541.6</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>557.5</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>3.03</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>54</v>
+      <c r="A49" s="0" t="n">
+        <v>3108</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>1.53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>55</v>
+      <c r="A50" s="0" t="n">
+        <v>3109</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>2.34</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>56</v>
+      <c r="A51" s="0" t="n">
+        <v>1469</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>3.69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>57</v>
+      <c r="A52" s="0" t="n">
+        <v>1470</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>3.24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>58</v>
+      <c r="A53" s="0" t="n">
+        <v>3288</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>2.25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>59</v>
+      <c r="A54" s="0" t="n">
+        <v>3351</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>2.38</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>60</v>
+      <c r="A55" s="0" t="n">
+        <v>3566</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>3.41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>61</v>
+      <c r="A56" s="0" t="n">
+        <v>4514</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>472.9</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>310.8</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>472.7</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>62</v>
+      <c r="A57" s="0" t="n">
+        <v>4373</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>469.4</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>549.1</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>2.44</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>63</v>
+      <c r="A58" s="0" t="n">
+        <v>4583</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>587.4</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>450.8</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>580.3</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>3.79</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>64</v>
+      <c r="A59" s="0" t="n">
+        <v>4375</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>444.3</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>497.2</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>2.26</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>65</v>
+      <c r="A60" s="0" t="n">
+        <v>4047</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>12.41</v>
@@ -1911,8 +1398,8 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>66</v>
+      <c r="A61" s="0" t="n">
+        <v>4068</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>8.74</v>
@@ -1934,8 +1421,8 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>67</v>
+      <c r="A62" s="0" t="n">
+        <v>4050</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>8.18</v>
@@ -1957,120 +1444,171 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>68</v>
+      <c r="A63" s="0" t="n">
+        <v>1456</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>3.09</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>69</v>
+      <c r="A64" s="0" t="n">
+        <v>4590</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>503.8</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>382.4</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>508.5</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>560.2</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>3.44</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>70</v>
+      <c r="A65" s="0" t="n">
+        <v>4478</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>545</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>523.4</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>557</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>3.32</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>71</v>
+      <c r="A66" s="0" t="n">
+        <v>1061</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>1.69</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>72</v>
+      <c r="A67" s="0" t="n">
+        <v>2264</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>363.9</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>73</v>
+      <c r="A68" s="0" t="n">
+        <v>3303</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>3.38</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>74</v>
+      <c r="A69" s="0" t="n">
+        <v>3289</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>75</v>
+      <c r="A70" s="0" t="n">
+        <v>3348</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>2.29</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>76</v>
+      <c r="A71" s="0" t="n">
+        <v>3347</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>77</v>
+      <c r="A72" s="0" t="n">
+        <v>3355</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>2.05</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>78</v>
+      <c r="A73" s="0" t="n">
+        <v>4597</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>660.4</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>458.9</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>598.9</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>4.44</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>79</v>
+      <c r="A74" s="0" t="n">
+        <v>3232</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>80</v>
+      <c r="A75" s="0" t="n">
+        <v>3231</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>1.55</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>81</v>
+      <c r="A76" s="0" t="n">
+        <v>3230</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>3.14</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>82</v>
+      <c r="A77" s="0" t="n">
+        <v>3324</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>12.3</v>
@@ -2092,16 +1630,16 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>83</v>
+      <c r="A78" s="0" t="n">
+        <v>3317</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>2.83</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>84</v>
+      <c r="A79" s="0" t="n">
+        <v>3286</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>9.89</v>
@@ -2123,24 +1661,54 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>85</v>
+      <c r="A80" s="0" t="n">
+        <v>3318</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>379.83</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>321.7</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>304.2</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>2.59</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>86</v>
+      <c r="A81" s="0" t="n">
+        <v>3333</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>428.9</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>442.1</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>2.91</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>87</v>
+      <c r="A82" s="0" t="n">
+        <v>3285</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>8.75</v>
@@ -2162,8 +1730,8 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>88</v>
+      <c r="A83" s="0" t="n">
+        <v>3363</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>12.56</v>
@@ -2185,8 +1753,8 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>89</v>
+      <c r="A84" s="0" t="n">
+        <v>3201</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>8.9</v>
@@ -2208,8 +1776,8 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>90</v>
+      <c r="A85" s="0" t="n">
+        <v>3307</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>9.07</v>
@@ -2231,8 +1799,8 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>91</v>
+      <c r="A86" s="0" t="n">
+        <v>3557</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>7.53</v>
@@ -2254,8 +1822,8 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>92</v>
+      <c r="A87" s="0" t="n">
+        <v>3193</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>6.71</v>
@@ -2277,80 +1845,140 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>93</v>
+      <c r="A88" s="0" t="n">
+        <v>3372</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>1.94</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>94</v>
+      <c r="A89" s="0" t="n">
+        <v>3343</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>1.55</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>95</v>
+      <c r="A90" s="0" t="n">
+        <v>3354</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>96</v>
+      <c r="A91" s="0" t="n">
+        <v>3292</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>1.96</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>97</v>
+      <c r="A92" s="0" t="n">
+        <v>3349</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>2.95</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>98</v>
+      <c r="A93" s="0" t="n">
+        <v>2421</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>477.4</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>356.4</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>424.3</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>2.91</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>99</v>
+      <c r="A94" s="0" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>443.6</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>326.4</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>337.6</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>343</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>2.47</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>100</v>
+      <c r="A95" s="0" t="n">
+        <v>2419</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>504.1</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>246.9</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>368.5</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>421.8</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>101</v>
+      <c r="A96" s="0" t="n">
+        <v>2415</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>368.5</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>2.23</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>102</v>
+      <c r="A97" s="0" t="n">
+        <v>4088</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>5.79</v>
@@ -2372,8 +2000,8 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>103</v>
+      <c r="A98" s="0" t="n">
+        <v>4074</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>8.74</v>
@@ -2395,24 +2023,54 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>104</v>
+      <c r="A99" s="0" t="n">
+        <v>2409</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>341.4</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>2.15</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>105</v>
+      <c r="A100" s="0" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>430.6</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>353.6</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>358.3</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>2.26</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>106</v>
+      <c r="A101" s="0" t="n">
+        <v>2440</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>10.2</v>
@@ -2434,8 +2092,8 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>107</v>
+      <c r="A102" s="0" t="n">
+        <v>4087</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>10.02</v>
@@ -2457,8 +2115,8 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>108</v>
+      <c r="A103" s="0" t="n">
+        <v>2099</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>13.9</v>
@@ -2480,8 +2138,8 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>109</v>
+      <c r="A104" s="0" t="n">
+        <v>4168</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>7.7</v>
@@ -2503,8 +2161,8 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>110</v>
+      <c r="A105" s="0" t="n">
+        <v>4078</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4.99</v>
@@ -2526,24 +2184,36 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>111</v>
+      <c r="A106" s="0" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>452</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>2.86</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>112</v>
+      <c r="A107" s="0" t="n">
+        <v>1517</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>651</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>4.17</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>113</v>
+      <c r="A108" s="0" t="n">
+        <v>4039</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>11.04</v>
@@ -2565,16 +2235,22 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>114</v>
+      <c r="A109" s="0" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>398</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>2.68</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>115</v>
+      <c r="A110" s="0" t="n">
+        <v>4040</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>9.82</v>
@@ -2596,16 +2272,22 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>116</v>
+      <c r="A111" s="0" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>383</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>2.13</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>117</v>
+      <c r="A112" s="0" t="n">
+        <v>1559</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>15.83</v>
@@ -2618,8 +2300,8 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>118</v>
+      <c r="A113" s="0" t="n">
+        <v>1499</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>13.12</v>
@@ -2632,40 +2314,58 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>119</v>
+      <c r="A114" s="0" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>598</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>3.19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>120</v>
+      <c r="A115" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>253</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>1.35</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>121</v>
+      <c r="A116" s="0" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>411</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>2.24</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>122</v>
+      <c r="A117" s="0" t="n">
+        <v>3319</v>
       </c>
       <c r="G117" s="0" t="n">
         <v>3.65</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>123</v>
+      <c r="A118" s="0" t="n">
+        <v>4169</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>11.68</v>
@@ -2687,56 +2387,92 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>124</v>
+      <c r="A119" s="0" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>574</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>3.53</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>125</v>
+      <c r="A120" s="0" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>344</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>126</v>
+      <c r="A121" s="0" t="n">
+        <v>1558</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>598</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>3.66</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>127</v>
+      <c r="A122" s="0" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>556</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>3.49</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>128</v>
+      <c r="A123" s="0" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>453</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>2.38</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>129</v>
+      <c r="A124" s="0" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>578</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>3.71</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>130</v>
+      <c r="A125" s="0" t="n">
+        <v>4037</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>12.1</v>
@@ -2758,8 +2494,8 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>131</v>
+      <c r="A126" s="0" t="n">
+        <v>4061</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>6.22</v>
@@ -2781,8 +2517,8 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>132</v>
+      <c r="A127" s="0" t="n">
+        <v>4159</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>11.09</v>
@@ -2804,16 +2540,31 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>133</v>
+      <c r="A128" s="0" t="n">
+        <v>3404</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>9.89</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>215</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>2.72</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>134</v>
+      <c r="A129" s="0" t="n">
+        <v>3276</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>7.98</v>
@@ -2835,8 +2586,8 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>135</v>
+      <c r="A130" s="0" t="n">
+        <v>3272</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>4.9</v>
@@ -2858,8 +2609,8 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>136</v>
+      <c r="A131" s="0" t="n">
+        <v>4098</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>10.32</v>
@@ -2881,40 +2632,100 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>137</v>
+      <c r="A132" s="0" t="n">
+        <v>4443</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>475.8</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>464.8</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>519.2</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>494.8</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>2.82</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>138</v>
+      <c r="A133" s="0" t="n">
+        <v>4442</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>8.87</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>538.4</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>531.2</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>2.44</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>139</v>
+      <c r="A134" s="0" t="n">
+        <v>4441</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>608.1</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>493.9</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>508.5</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>3.28</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>140</v>
+      <c r="A135" s="0" t="n">
+        <v>4448</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>488.79</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>422.4</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>534.8</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>2.77</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>141</v>
+      <c r="A136" s="0" t="n">
+        <v>4100</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>14.22</v>
@@ -2936,8 +2747,8 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>142</v>
+      <c r="A137" s="0" t="n">
+        <v>4048</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>8.63</v>
@@ -2959,8 +2770,8 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>143</v>
+      <c r="A138" s="0" t="n">
+        <v>3284</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>8.38</v>
@@ -2982,8 +2793,8 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>144</v>
+      <c r="A139" s="0" t="n">
+        <v>3185</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>6.91</v>
@@ -3005,16 +2816,31 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>145</v>
+      <c r="A140" s="0" t="n">
+        <v>4445</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>481.3</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>439.9</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>2.43</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>146</v>
+      <c r="A141" s="0" t="n">
+        <v>4059</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>8.38</v>
@@ -3036,8 +2862,8 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>147</v>
+      <c r="A142" s="0" t="n">
+        <v>4145</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>11.22</v>
@@ -3059,8 +2885,8 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>148</v>
+      <c r="A143" s="0" t="n">
+        <v>4058</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>10.73</v>
@@ -3082,72 +2908,192 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>149</v>
+      <c r="A144" s="0" t="n">
+        <v>3591</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>327.3</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>329.2</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>285.6</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>2.71</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>150</v>
+      <c r="A145" s="0" t="n">
+        <v>3583</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>310.8</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>178.9</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>151</v>
+      <c r="A146" s="0" t="n">
+        <v>3417</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>305.3</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>208.4</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>2.44</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>152</v>
+      <c r="A147" s="0" t="n">
+        <v>3418</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>446</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>258.3</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>2.34</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>153</v>
+      <c r="A148" s="0" t="n">
+        <v>3513</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>299.2</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>249.5</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>2.27</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>154</v>
+      <c r="A149" s="0" t="n">
+        <v>3594</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>539</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>282.4</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>3.11</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>155</v>
+      <c r="A150" s="0" t="n">
+        <v>3597</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>259.4</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>156</v>
+      <c r="A151" s="0" t="n">
+        <v>3598</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>9.63</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>428.9</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>399.6</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>2.34</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>157</v>
+      <c r="A152" s="0" t="n">
+        <v>3282</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>7.43</v>
@@ -3169,32 +3115,62 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>158</v>
+      <c r="A153" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>534.8</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>407.1</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>388.8</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>2.66</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>159</v>
+      <c r="A154" s="0" t="n">
+        <v>3415</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>8.63</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>225.9</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>160</v>
+      <c r="A155" s="0" t="n">
+        <v>3226</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>2.33</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>161</v>
+      <c r="A156" s="0" t="n">
+        <v>4571</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>15.3</v>
@@ -3216,16 +3192,16 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>162</v>
+      <c r="A157" s="0" t="n">
+        <v>3225</v>
       </c>
       <c r="G157" s="0" t="n">
         <v>2.07</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>163</v>
+      <c r="A158" s="0" t="n">
+        <v>4076</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>12.37</v>
@@ -3247,8 +3223,8 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>164</v>
+      <c r="A159" s="0" t="n">
+        <v>4045</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>12.96</v>
@@ -3270,32 +3246,77 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>165</v>
+      <c r="A160" s="0" t="n">
+        <v>3010</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>348</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>274.7</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>243</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>1.69</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>166</v>
+      <c r="A161" s="0" t="n">
+        <v>3009</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>437.2</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>441.3</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>323.5</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>2.41</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>167</v>
+      <c r="A162" s="0" t="n">
+        <v>3167</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>8.64</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>252.1</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>2.38</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>168</v>
+      <c r="A163" s="0" t="n">
+        <v>4067</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>11.77</v>
@@ -3317,32 +3338,77 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>169</v>
+      <c r="A164" s="0" t="n">
+        <v>3485</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>498</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>233.7</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>2.73</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>170</v>
+      <c r="A165" s="0" t="n">
+        <v>3586</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>205.2</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>1.78</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>171</v>
+      <c r="A166" s="0" t="n">
+        <v>3585</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>364</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>369.3</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>239</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>1.65</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>172</v>
+      <c r="A167" s="0" t="n">
+        <v>3270</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>7.6</v>
@@ -3364,8 +3430,8 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>173</v>
+      <c r="A168" s="0" t="n">
+        <v>3088</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>9.25</v>
@@ -3387,72 +3453,150 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>174</v>
+      <c r="A169" s="0" t="n">
+        <v>4372</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>327</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>354.6</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>458.2</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>426.8</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>1.92</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>175</v>
+      <c r="A170" s="0" t="n">
+        <v>4575</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>568</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>466.2</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>531.2</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>593.4</v>
       </c>
       <c r="G170" s="0" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>176</v>
+      <c r="A171" s="0" t="n">
+        <v>4473</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>439.9</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>583.3</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>572.8</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>3.02</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>177</v>
+      <c r="A172" s="0" t="n">
+        <v>4550</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>561.8</v>
       </c>
       <c r="G172" s="0" t="n">
         <v>2.23</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>178</v>
+      <c r="A173" s="0" t="n">
+        <v>1529</v>
       </c>
       <c r="G173" s="0" t="n">
         <v>2.73</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>179</v>
+      <c r="A174" s="0" t="n">
+        <v>1568</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>591.9</v>
       </c>
       <c r="G174" s="0" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>180</v>
+      <c r="A175" s="0" t="n">
+        <v>1562</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>627</v>
       </c>
       <c r="G175" s="0" t="n">
         <v>4.08</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>181</v>
+      <c r="A176" s="0" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>510</v>
       </c>
       <c r="G176" s="0" t="n">
         <v>3.43</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>182</v>
+      <c r="A177" s="0" t="n">
+        <v>3153</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>6.89</v>
@@ -3474,16 +3618,16 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>183</v>
+      <c r="A178" s="0" t="n">
+        <v>1465</v>
       </c>
       <c r="G178" s="0" t="n">
         <v>2.51</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>184</v>
+      <c r="A179" s="0" t="n">
+        <v>3560</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>12.19</v>
@@ -3505,8 +3649,8 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>185</v>
+      <c r="A180" s="0" t="n">
+        <v>3152</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>4.85</v>
@@ -3528,8 +3672,8 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>186</v>
+      <c r="A181" s="0" t="n">
+        <v>3107</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>5.2</v>
@@ -3551,8 +3695,8 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>187</v>
+      <c r="A182" s="0" t="n">
+        <v>3268</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>6.15</v>
@@ -3574,16 +3718,22 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>188</v>
+      <c r="A183" s="0" t="n">
+        <v>1566</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>508.8</v>
       </c>
       <c r="G183" s="0" t="n">
         <v>2.74</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>189</v>
+      <c r="A184" s="0" t="n">
+        <v>3275</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>10.57</v>
@@ -3605,32 +3755,38 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>190</v>
+      <c r="A185" s="0" t="n">
+        <v>1530</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>3.02</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>191</v>
+      <c r="A186" s="0" t="n">
+        <v>1538</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>2.78</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>192</v>
+      <c r="A187" s="0" t="n">
+        <v>2261</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>394.9</v>
       </c>
       <c r="G187" s="0" t="n">
         <v>1.87</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>193</v>
+      <c r="A188" s="0" t="n">
+        <v>2082</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>12.2</v>
@@ -3652,8 +3808,8 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>194</v>
+      <c r="A189" s="0" t="n">
+        <v>2098</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>10.4</v>
@@ -3675,16 +3831,16 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>195</v>
+      <c r="A190" s="0" t="n">
+        <v>1468</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>3.15</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>196</v>
+      <c r="A191" s="0" t="n">
+        <v>2097</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>6.1</v>
@@ -3706,24 +3862,24 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>197</v>
+      <c r="A192" s="0" t="n">
+        <v>1544</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>3.61</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>198</v>
+      <c r="A193" s="0" t="n">
+        <v>1458</v>
       </c>
       <c r="G193" s="0" t="n">
         <v>4.17</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>199</v>
+      <c r="A194" s="0" t="n">
+        <v>2100</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>8.6</v>
@@ -3745,91 +3901,142 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>200</v>
+      <c r="A195" s="0" t="n">
+        <v>1284</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>2.38</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>201</v>
+      <c r="A196" s="0" t="n">
+        <v>1457</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>3.66</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>202</v>
+      <c r="A197" s="0" t="n">
+        <v>1461</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>2.84</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>203</v>
+      <c r="A198" s="0" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>554</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>3.13</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>204</v>
+      <c r="A199" s="0" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>431</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>2.49</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>205</v>
+      <c r="A200" s="0" t="n">
+        <v>2418</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>434.1</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>387.4</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>2.66</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>206</v>
+      <c r="A201" s="0" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>330</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>1.77</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>207</v>
+      <c r="A202" s="0" t="n">
+        <v>1479</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>618</v>
       </c>
       <c r="G202" s="0" t="n">
         <v>3.17</v>
       </c>
-      <c r="O202" s="0" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>209</v>
+      <c r="A203" s="0" t="n">
+        <v>2416</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>343.2</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>359.2</v>
       </c>
       <c r="G203" s="0" t="n">
         <v>1.94</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>210</v>
+      <c r="A204" s="0" t="n">
+        <v>2413</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>2.25</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>211</v>
+      <c r="A205" s="0" t="n">
+        <v>4081</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>7.48</v>
@@ -3851,8 +4058,8 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>212</v>
+      <c r="A206" s="0" t="n">
+        <v>3283</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>9.31</v>
@@ -3874,8 +4081,8 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>213</v>
+      <c r="A207" s="0" t="n">
+        <v>3281</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>7.8</v>
@@ -3897,48 +4104,60 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>214</v>
+      <c r="A208" s="0" t="n">
+        <v>3568</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>215</v>
+      <c r="A209" s="0" t="n">
+        <v>1582</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>614</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>3.82</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>216</v>
+      <c r="A210" s="0" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>663</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>217</v>
+      <c r="A211" s="0" t="n">
+        <v>3156</v>
       </c>
       <c r="G211" s="0" t="n">
         <v>2.04</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>218</v>
+      <c r="A212" s="0" t="n">
+        <v>3157</v>
       </c>
       <c r="G212" s="0" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>219</v>
+      <c r="A213" s="0" t="n">
+        <v>3570</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>10</v>
@@ -3960,8 +4179,8 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>220</v>
+      <c r="A214" s="0" t="n">
+        <v>1500</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>12.46</v>
@@ -3974,24 +4193,36 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>221</v>
+      <c r="A215" s="0" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>494</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>2.52</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>222</v>
+      <c r="A216" s="0" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>4.75</v>
       </c>
       <c r="G216" s="0" t="n">
         <v>2.91</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>223</v>
+      <c r="A217" s="0" t="n">
+        <v>3110</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>7.64</v>
@@ -4013,16 +4244,31 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>224</v>
+      <c r="A218" s="0" t="n">
+        <v>3267</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>350.55</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>210.1</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>298.3</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>225</v>
+      <c r="A219" s="0" t="n">
+        <v>3154</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>7.8</v>
@@ -4044,24 +4290,36 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>226</v>
+      <c r="A220" s="0" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>246</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>1.49</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>227</v>
+      <c r="A221" s="0" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>337</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>228</v>
+      <c r="A222" s="0" t="n">
+        <v>3273</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>5.45</v>
@@ -4083,8 +4341,8 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>229</v>
+      <c r="A223" s="0" t="n">
+        <v>3274</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>8.38</v>
@@ -4106,8 +4364,8 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>230</v>
+      <c r="A224" s="0" t="n">
+        <v>3558</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>7.99</v>
@@ -4129,8 +4387,8 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>231</v>
+      <c r="A225" s="0" t="n">
+        <v>3345</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>11.99</v>
@@ -4152,8 +4410,8 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>232</v>
+      <c r="A226" s="0" t="n">
+        <v>3105</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>9.6</v>
@@ -4175,24 +4433,45 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>233</v>
+      <c r="A227" s="0" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>378</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>2.15</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>234</v>
+      <c r="A228" s="0" t="n">
+        <v>4444</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>609.2</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>521</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>592.4</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>611.5</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>3.76</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>235</v>
+      <c r="A229" s="0" t="n">
+        <v>4089</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>9.1</v>
@@ -4214,16 +4493,31 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>236</v>
+      <c r="A230" s="0" t="n">
+        <v>4545</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>467.3</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>527.9</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>2.61</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>237</v>
+      <c r="A231" s="0" t="n">
+        <v>4060</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>8.01</v>
@@ -4245,1197 +4539,1880 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>238</v>
+      <c r="A232" s="0" t="n">
+        <v>3191</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>446</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>333.9</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>284.5</v>
       </c>
       <c r="G232" s="0" t="n">
-        <v>3.46</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>239</v>
+      <c r="A233" s="0" t="n">
+        <v>2262</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>342</v>
       </c>
       <c r="G233" s="0" t="n">
-        <v>2.19</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>240</v>
+      <c r="A234" s="0" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>451</v>
       </c>
       <c r="G234" s="0" t="n">
-        <v>1.9</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>241</v>
+      <c r="A235" s="0" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>621</v>
       </c>
       <c r="G235" s="0" t="n">
-        <v>3.07</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>242</v>
+      <c r="A236" s="0" t="n">
+        <v>3590</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>262.7</v>
       </c>
       <c r="G236" s="0" t="n">
-        <v>3.62</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>243</v>
+      <c r="A237" s="0" t="n">
+        <v>4570</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>9.69</v>
+        <v>15.69</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>436</v>
+        <v>623.6</v>
       </c>
       <c r="D237" s="0" t="n">
-        <v>392.5</v>
+        <v>455.6</v>
       </c>
       <c r="E237" s="0" t="n">
-        <v>315.2</v>
+        <v>514.6</v>
       </c>
       <c r="F237" s="0" t="n">
-        <v>262.7</v>
+        <v>574.5</v>
       </c>
       <c r="G237" s="0" t="n">
-        <v>2.02</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>244</v>
+      <c r="A238" s="0" t="n">
+        <v>1219</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>15.69</v>
+        <v>9.75</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>623.6</v>
-      </c>
-      <c r="D238" s="0" t="n">
-        <v>455.6</v>
-      </c>
-      <c r="E238" s="0" t="n">
-        <v>514.6</v>
-      </c>
-      <c r="F238" s="0" t="n">
-        <v>574.5</v>
+        <v>381</v>
       </c>
       <c r="G238" s="0" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>245</v>
+      <c r="A239" s="0" t="n">
+        <v>3589</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="F239" s="0" t="n">
+        <v>277.1</v>
       </c>
       <c r="G239" s="0" t="n">
-        <v>2.06</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>246</v>
+      <c r="A240" s="0" t="n">
+        <v>2260</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>9.2</v>
+        <v>7.5</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>429</v>
-      </c>
-      <c r="D240" s="0" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="E240" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>458</v>
+      </c>
+      <c r="G242" s="0" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>3588</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>384.1</v>
+      </c>
+      <c r="F243" s="0" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="G243" s="0" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
+        <v>3091</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="G244" s="0" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>4333</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>390.8</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>510.3</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>504.8</v>
+      </c>
+      <c r="F245" s="0" t="n">
+        <v>511.5</v>
+      </c>
+      <c r="G245" s="0" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>3077</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="F246" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="G246" s="0" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>3075</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>477</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>442.8</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>433.3</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>483</v>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>3071</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>428.9</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>3093</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>458.2</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="G250" s="0" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>4589</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>525.8</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>478.6</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="G252" s="0" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
+        <v>3327</v>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>4587</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>628</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>493.6</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>585.4</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>577.2</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
+        <v>4476</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>684.8</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>459.6</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>558.1</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>577.2</v>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
+        <v>3569</v>
+      </c>
+      <c r="G256" s="0" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
+        <v>3051</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>440.6</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>384.9</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>345.1</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
+        <v>3099</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>515.7</v>
+      </c>
+      <c r="E258" s="0" t="n">
         <v>357.3</v>
-      </c>
-      <c r="F240" s="0" t="n">
-        <v>277.1</v>
-      </c>
-      <c r="G240" s="0" t="n">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="G241" s="0" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="G242" s="0" t="n">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="G243" s="0" t="n">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B244" s="0" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="C244" s="0" t="n">
-        <v>402</v>
-      </c>
-      <c r="D244" s="0" t="n">
-        <v>361.9</v>
-      </c>
-      <c r="E244" s="0" t="n">
-        <v>384.1</v>
-      </c>
-      <c r="F244" s="0" t="n">
-        <v>307.5</v>
-      </c>
-      <c r="G244" s="0" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B245" s="0" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="C245" s="0" t="n">
-        <v>251</v>
-      </c>
-      <c r="D245" s="0" t="n">
-        <v>365.2</v>
-      </c>
-      <c r="E245" s="0" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="G245" s="0" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="G246" s="0" t="n">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B247" s="0" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="C247" s="0" t="n">
-        <v>322</v>
-      </c>
-      <c r="D247" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="E247" s="0" t="n">
-        <v>168</v>
-      </c>
-      <c r="F247" s="0" t="n">
-        <v>198</v>
-      </c>
-      <c r="G247" s="0" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B248" s="0" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="C248" s="0" t="n">
-        <v>477</v>
-      </c>
-      <c r="D248" s="0" t="n">
-        <v>442.8</v>
-      </c>
-      <c r="E248" s="0" t="n">
-        <v>433.3</v>
-      </c>
-      <c r="F248" s="0" t="n">
-        <v>437.9</v>
-      </c>
-      <c r="G248" s="0" t="n">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="G249" s="0" t="n">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B250" s="0" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C250" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="D250" s="0" t="n">
-        <v>428.9</v>
-      </c>
-      <c r="E250" s="0" t="n">
-        <v>375.2</v>
-      </c>
-      <c r="F250" s="0" t="n">
-        <v>296.4</v>
-      </c>
-      <c r="G250" s="0" t="n">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B251" s="0" t="n">
-        <v>9.96</v>
-      </c>
-      <c r="C251" s="0" t="n">
-        <v>410</v>
-      </c>
-      <c r="D251" s="0" t="n">
-        <v>458.2</v>
-      </c>
-      <c r="E251" s="0" t="n">
-        <v>453</v>
-      </c>
-      <c r="F251" s="0" t="n">
-        <v>378</v>
-      </c>
-      <c r="G251" s="0" t="n">
-        <v>2.55</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="G252" s="0" t="n">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="G253" s="0" t="n">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="G254" s="0" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="G255" s="0" t="n">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="G256" s="0" t="n">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="G257" s="0" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B258" s="0" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="C258" s="0" t="n">
-        <v>322</v>
-      </c>
-      <c r="D258" s="0" t="n">
-        <v>440.6</v>
-      </c>
-      <c r="E258" s="0" t="n">
-        <v>384.9</v>
       </c>
       <c r="F258" s="0" t="n">
         <v>345.1</v>
       </c>
       <c r="G258" s="0" t="n">
-        <v>2.01</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>265</v>
+      <c r="A259" s="0" t="n">
+        <v>3014</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>8.75</v>
+        <v>13.05</v>
       </c>
       <c r="C259" s="0" t="n">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="D259" s="0" t="n">
-        <v>515.7</v>
+        <v>489.1</v>
       </c>
       <c r="E259" s="0" t="n">
-        <v>357.3</v>
+        <v>477.9</v>
       </c>
       <c r="F259" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
+        <v>4479</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>532.8</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>435.9</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>526.8</v>
+      </c>
+      <c r="F260" s="0" t="n">
+        <v>522.8</v>
+      </c>
+      <c r="G260" s="0" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
+        <v>3017</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>533.6</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>493.6</v>
+      </c>
+      <c r="F261" s="0" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="G261" s="0" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>453</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>385.7</v>
+      </c>
+      <c r="F262" s="0" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="G262" s="0" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
+        <v>4090</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>382.89</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>429.6</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>470.1</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="G263" s="0" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
+        <v>3315</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>560</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>279.7</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="F264" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="G264" s="0" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
+        <v>2331</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="F265" s="0" t="n">
+        <v>420.2</v>
+      </c>
+      <c r="G265" s="0" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
+        <v>2411</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="F266" s="0" t="n">
         <v>345.1</v>
       </c>
-      <c r="G259" s="0" t="n">
+      <c r="G266" s="0" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
+        <v>3194</v>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>470.1</v>
+      </c>
+      <c r="F267" s="0" t="n">
+        <v>525.4</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
+        <v>3563</v>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
+        <v>2410</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>481.3</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="F269" s="0" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>504.8</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="F270" s="0" t="n">
+        <v>412.8</v>
+      </c>
+      <c r="G270" s="0" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>361.9</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="F271" s="0" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="G271" s="0" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
+        <v>2329</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>386.9</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="F272" s="0" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="G272" s="0" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>264.4</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="F273" s="0" t="n">
+        <v>388.1</v>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
+        <v>2464</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>472.5</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
+        <v>3567</v>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
+        <v>3565</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
+        <v>3564</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="G278" s="0" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="n">
+        <v>3581</v>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>229.8</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
+        <v>3245</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>433.8</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>321.7</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
+        <v>3123</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>400.5</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
+        <v>3580</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>309.7</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="n">
+        <v>3559</v>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>592.7</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>347</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>413.6</v>
+      </c>
+      <c r="F285" s="0" t="n">
+        <v>447.9</v>
+      </c>
+      <c r="G285" s="0" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="n">
+        <v>3238</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>431.1</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>455.6</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>454.9</v>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>588</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>583</v>
+      </c>
+      <c r="G288" s="0" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>597</v>
+      </c>
+      <c r="G290" s="0" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="G291" s="0" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
+        <v>3124</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>410.7</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>478.6</v>
+      </c>
+      <c r="G292" s="0" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
+        <v>1540</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>577</v>
+      </c>
+      <c r="G293" s="0" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>556</v>
+      </c>
+      <c r="G294" s="0" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
+        <v>3316</v>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="E295" s="0" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="F295" s="0" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="G295" s="0" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>459.57</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>439.2</v>
+      </c>
+      <c r="G296" s="0" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
+        <v>2422</v>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>406.4</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="E297" s="0" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
+        <v>3224</v>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>304.2</v>
+      </c>
+      <c r="E298" s="0" t="n">
+        <v>741.3</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>411.4</v>
+      </c>
+      <c r="G298" s="0" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
+        <v>3242</v>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>330.1</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>321.7</v>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>452.9</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="G300" s="0" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>411.4</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E301" s="0" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>361.4</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>450.7</v>
+      </c>
+      <c r="D302" s="0" t="n">
+        <v>293.3</v>
+      </c>
+      <c r="E302" s="0" t="n">
+        <v>333.9</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>330.1</v>
+      </c>
+      <c r="G302" s="0" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="n">
+        <v>1563</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>546</v>
+      </c>
+      <c r="G303" s="0" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>544.3</v>
+      </c>
+      <c r="D304" s="0" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="E304" s="0" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="F304" s="0" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="G304" s="0" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="D305" s="0" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="E305" s="0" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="G305" s="0" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="n">
+        <v>4035</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>302.23</v>
+      </c>
+      <c r="D306" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="E306" s="0" t="n">
+        <v>463.5</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>434.6</v>
+      </c>
+      <c r="G306" s="0" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="n">
+        <v>4057</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>9.28</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>398.7</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="E307" s="0" t="n">
+        <v>390.3</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>417.2</v>
+      </c>
+      <c r="G307" s="0" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="n">
+        <v>4506</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>670.39</v>
+      </c>
+      <c r="D308" s="0" t="n">
+        <v>506.1</v>
+      </c>
+      <c r="E308" s="0" t="n">
+        <v>621.7</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <v>617.2</v>
+      </c>
+      <c r="G308" s="0" t="n">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="n">
+        <v>2460</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>454.4</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="E309" s="0" t="n">
+        <v>345.1</v>
+      </c>
+      <c r="F309" s="0" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="G309" s="0" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B310" s="0" t="n">
+        <v>9.39</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>499.8</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="E310" s="0" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="G310" s="0" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="n">
+        <v>4586</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>510.3</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>491.1</v>
+      </c>
+      <c r="E311" s="0" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="F311" s="0" t="n">
+        <v>562.9</v>
+      </c>
+      <c r="G311" s="0" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="n">
+        <v>4099</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>596.4</v>
+      </c>
+      <c r="D312" s="0" t="n">
+        <v>330.1</v>
+      </c>
+      <c r="E312" s="0" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>462.2</v>
+      </c>
+      <c r="G312" s="0" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="n">
+        <v>4331</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>420.2</v>
+      </c>
+      <c r="D313" s="0" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="E313" s="0" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="F313" s="0" t="n">
+        <v>482.6</v>
+      </c>
+      <c r="G313" s="0" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B260" s="0" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="C260" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="D260" s="0" t="n">
-        <v>489.1</v>
-      </c>
-      <c r="E260" s="0" t="n">
-        <v>477.9</v>
-      </c>
-      <c r="F260" s="0" t="n">
-        <v>418</v>
-      </c>
-      <c r="G260" s="0" t="n">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="G261" s="0" t="n">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B262" s="0" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="C262" s="0" t="n">
-        <v>431</v>
-      </c>
-      <c r="D262" s="0" t="n">
-        <v>533.6</v>
-      </c>
-      <c r="E262" s="0" t="n">
-        <v>493.6</v>
-      </c>
-      <c r="F262" s="0" t="n">
-        <v>401.3</v>
-      </c>
-      <c r="G262" s="0" t="n">
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="n">
+        <v>4335</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>545.3</v>
+      </c>
+      <c r="D314" s="0" t="n">
+        <v>337.6</v>
+      </c>
+      <c r="E314" s="0" t="n">
+        <v>376.1</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>494.8</v>
+      </c>
+      <c r="G314" s="0" t="n">
         <v>2.64</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B263" s="0" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="C263" s="0" t="n">
-        <v>453</v>
-      </c>
-      <c r="D263" s="0" t="n">
-        <v>317</v>
-      </c>
-      <c r="E263" s="0" t="n">
-        <v>385.7</v>
-      </c>
-      <c r="F263" s="0" t="n">
-        <v>415.8</v>
-      </c>
-      <c r="G263" s="0" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B264" s="0" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="C264" s="0" t="n">
-        <v>382.89</v>
-      </c>
-      <c r="D264" s="0" t="n">
-        <v>429.6</v>
-      </c>
-      <c r="E264" s="0" t="n">
-        <v>470.1</v>
-      </c>
-      <c r="F264" s="0" t="n">
-        <v>359.4</v>
-      </c>
-      <c r="G264" s="0" t="n">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B265" s="0" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="C265" s="0" t="n">
-        <v>560</v>
-      </c>
-      <c r="D265" s="0" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="E265" s="0" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="F265" s="0" t="n">
-        <v>235</v>
-      </c>
-      <c r="G265" s="0" t="n">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="G266" s="0" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="G267" s="0" t="n">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B268" s="0" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C268" s="0" t="n">
-        <v>380</v>
-      </c>
-      <c r="D268" s="0" t="n">
-        <v>355.2</v>
-      </c>
-      <c r="E268" s="0" t="n">
-        <v>470.1</v>
-      </c>
-      <c r="F268" s="0" t="n">
-        <v>525.4</v>
-      </c>
-      <c r="G268" s="0" t="n">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="G269" s="0" t="n">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="G270" s="0" t="n">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="G271" s="0" t="n">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="G272" s="0" t="n">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="G273" s="0" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="G274" s="0" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="G275" s="0" t="n">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G276" s="0" t="n">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="G277" s="0" t="n">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="G278" s="0" t="n">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="G279" s="0" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="G280" s="0" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="G281" s="0" t="n">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="G282" s="0" t="n">
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="n">
+        <v>3587</v>
+      </c>
+      <c r="B315" s="0" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>426.8</v>
+      </c>
+      <c r="E315" s="0" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="G315" s="0" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="n">
+        <v>3322</v>
+      </c>
+      <c r="B316" s="0" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="E316" s="0" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="G316" s="0" t="n">
         <v>1.58</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B283" s="0" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C283" s="0" t="n">
-        <v>433.8</v>
-      </c>
-      <c r="D283" s="0" t="n">
-        <v>321.7</v>
-      </c>
-      <c r="E283" s="0" t="n">
-        <v>389.6</v>
-      </c>
-      <c r="F283" s="0" t="n">
-        <v>421</v>
-      </c>
-      <c r="G283" s="0" t="n">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="B284" s="0" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="C284" s="0" t="n">
-        <v>351</v>
-      </c>
-      <c r="D284" s="0" t="n">
-        <v>334.9</v>
-      </c>
-      <c r="E284" s="0" t="n">
-        <v>400.5</v>
-      </c>
-      <c r="F284" s="0" t="n">
-        <v>306.4</v>
-      </c>
-      <c r="G284" s="0" t="n">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="G285" s="0" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="n">
+        <v>3192</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C317" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="B286" s="0" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C286" s="0" t="n">
-        <v>592.7</v>
-      </c>
-      <c r="D286" s="0" t="n">
-        <v>347</v>
-      </c>
-      <c r="E286" s="0" t="n">
-        <v>413.6</v>
-      </c>
-      <c r="F286" s="0" t="n">
+      <c r="D317" s="0" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="E317" s="0" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="F317" s="0" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="G317" s="0" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B318" s="0" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>575</v>
+      </c>
+      <c r="G318" s="0" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="n">
+        <v>4199</v>
+      </c>
+      <c r="B319" s="0" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>312.16</v>
+      </c>
+      <c r="D319" s="0" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="E319" s="0" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="n">
+        <v>4584</v>
+      </c>
+      <c r="B320" s="0" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>626</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>465.3</v>
+      </c>
+      <c r="E320" s="0" t="n">
+        <v>512.1</v>
+      </c>
+      <c r="F320" s="0" t="n">
+        <v>596.3</v>
+      </c>
+      <c r="G320" s="0" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="n">
+        <v>4374</v>
+      </c>
+      <c r="B321" s="0" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>476</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>411.4</v>
+      </c>
+      <c r="E321" s="0" t="n">
+        <v>531.2</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>571.7</v>
+      </c>
+      <c r="G321" s="0" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="n">
+        <v>4371</v>
+      </c>
+      <c r="B322" s="0" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="C322" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="D322" s="0" t="n">
         <v>447.9</v>
       </c>
-      <c r="G286" s="0" t="n">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B287" s="0" t="n">
-        <v>8.45</v>
-      </c>
-      <c r="C287" s="0" t="n">
-        <v>369</v>
-      </c>
-      <c r="D287" s="0" t="n">
-        <v>431.1</v>
-      </c>
-      <c r="E287" s="0" t="n">
-        <v>455.6</v>
-      </c>
-      <c r="F287" s="0" t="n">
-        <v>454.9</v>
-      </c>
-      <c r="G287" s="0" t="n">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="G288" s="0" t="n">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="G289" s="0" t="n">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="G290" s="0" t="n">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="G291" s="0" t="n">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="G292" s="0" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B293" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C293" s="0" t="n">
-        <v>433</v>
-      </c>
-      <c r="D293" s="0" t="n">
-        <v>264</v>
-      </c>
-      <c r="E293" s="0" t="n">
-        <v>410.7</v>
-      </c>
-      <c r="F293" s="0" t="n">
-        <v>478.6</v>
-      </c>
-      <c r="G293" s="0" t="n">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="G294" s="0" t="n">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="G295" s="0" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="B296" s="0" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C296" s="0" t="n">
-        <v>428</v>
-      </c>
-      <c r="D296" s="0" t="n">
-        <v>301.1</v>
-      </c>
-      <c r="E296" s="0" t="n">
-        <v>381.6</v>
-      </c>
-      <c r="F296" s="0" t="n">
-        <v>375.2</v>
-      </c>
-      <c r="G296" s="0" t="n">
+      <c r="E322" s="0" t="n">
+        <v>524.4</v>
+      </c>
+      <c r="F322" s="0" t="n">
+        <v>597.9</v>
+      </c>
+      <c r="G322" s="0" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="n">
+        <v>4370</v>
+      </c>
+      <c r="B323" s="0" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C323" s="0" t="n">
+        <v>509.28</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>497.8</v>
+      </c>
+      <c r="E323" s="0" t="n">
+        <v>611.1</v>
+      </c>
+      <c r="F323" s="0" t="n">
+        <v>601.4</v>
+      </c>
+      <c r="G323" s="0" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="n">
+        <v>3309</v>
+      </c>
+      <c r="B324" s="0" t="n">
+        <v>9.54</v>
+      </c>
+      <c r="C324" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="E324" s="0" t="n">
+        <v>278.4</v>
+      </c>
+      <c r="F324" s="0" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="G324" s="0" t="n">
         <v>2.37</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="G297" s="0" t="n">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="G298" s="0" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B299" s="0" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="C299" s="0" t="n">
-        <v>374</v>
-      </c>
-      <c r="D299" s="0" t="n">
-        <v>304.2</v>
-      </c>
-      <c r="E299" s="0" t="n">
-        <v>741.3</v>
-      </c>
-      <c r="F299" s="0" t="n">
-        <v>411.4</v>
-      </c>
-      <c r="G299" s="0" t="n">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B300" s="0" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="C300" s="0" t="n">
-        <v>286</v>
-      </c>
-      <c r="D300" s="0" t="n">
-        <v>264</v>
-      </c>
-      <c r="E300" s="0" t="n">
-        <v>330.1</v>
-      </c>
-      <c r="F300" s="0" t="n">
-        <v>321.7</v>
-      </c>
-      <c r="G300" s="0" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="G301" s="0" t="n">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G302" s="0" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="G303" s="0" t="n">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="G304" s="0" t="n">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="G305" s="0" t="n">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="G306" s="0" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="B307" s="0" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="C307" s="0" t="n">
-        <v>302.23</v>
-      </c>
-      <c r="D307" s="0" t="n">
-        <v>418</v>
-      </c>
-      <c r="E307" s="0" t="n">
-        <v>463.5</v>
-      </c>
-      <c r="F307" s="0" t="n">
-        <v>434.6</v>
-      </c>
-      <c r="G307" s="0" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B308" s="0" t="n">
-        <v>9.28</v>
-      </c>
-      <c r="C308" s="0" t="n">
-        <v>398.7</v>
-      </c>
-      <c r="D308" s="0" t="n">
-        <v>342.3</v>
-      </c>
-      <c r="E308" s="0" t="n">
-        <v>390.3</v>
-      </c>
-      <c r="F308" s="0" t="n">
-        <v>417.2</v>
-      </c>
-      <c r="G308" s="0" t="n">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="G309" s="0" t="n">
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="G310" s="0" t="n">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="G311" s="0" t="n">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="G312" s="0" t="n">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="B313" s="0" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="C313" s="0" t="n">
-        <v>596.4</v>
-      </c>
-      <c r="D313" s="0" t="n">
-        <v>330.1</v>
-      </c>
-      <c r="E313" s="0" t="n">
-        <v>374.3</v>
-      </c>
-      <c r="F313" s="0" t="n">
-        <v>462.2</v>
-      </c>
-      <c r="G313" s="0" t="n">
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="G314" s="0" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="G315" s="0" t="n">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="G316" s="0" t="n">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="G317" s="0" t="n">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="G318" s="0" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="G319" s="0" t="n">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="G320" s="0" t="n">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G321" s="0" t="n">
-        <v>4.73</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="G322" s="0" t="n">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="G323" s="0" t="n">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="G324" s="0" t="n">
-        <v>3.21</v>
-      </c>
-    </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
-        <v>331</v>
+      <c r="A325" s="0" t="n">
+        <v>3599</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>9.54</v>
+        <v>6.95</v>
       </c>
       <c r="C325" s="0" t="n">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="D325" s="0" t="n">
-        <v>265.2</v>
+        <v>324.5</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>278.4</v>
+        <v>326.4</v>
       </c>
       <c r="F325" s="0" t="n">
-        <v>315.2</v>
+        <v>282.4</v>
       </c>
       <c r="G325" s="0" t="n">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="G326" s="0" t="n">
         <v>1.82</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
